--- a/PY19_ERP_TAG_THUONG_MAI/assets/templates/print_templates.xlsx
+++ b/PY19_ERP_TAG_THUONG_MAI/assets/templates/print_templates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY18_ERP_TAG_THUONG_MAI_02\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY19_ERP_TAG_THUONG_MAI\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>RANGE_PRINT_PNK_TP</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>LAST_ROW</t>
+  </si>
+  <si>
+    <t>Phiếu đề nghị đặt hàng</t>
+  </si>
+  <si>
+    <t>RANGE_PRINT_KD0101_PHIEU_DE_NGHI_DAT_HANG</t>
   </si>
 </sst>
 </file>
@@ -500,170 +506,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -747,14 +594,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,28 +603,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,19 +623,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -826,22 +635,6 @@
     <xf numFmtId="168" fontId="7" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -850,26 +643,11 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -884,16 +662,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,9 +677,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,17 +684,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +697,259 @@
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12293,10 +12303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SH_PRINT"/>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12327,14 +12337,18 @@
     <col min="29" max="29" width="15.109375" customWidth="1"/>
     <col min="30" max="30" width="13.88671875" customWidth="1"/>
     <col min="31" max="31" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" customWidth="1"/>
-    <col min="33" max="33" width="3.44140625" customWidth="1"/>
-    <col min="34" max="34" width="7.5546875" customWidth="1"/>
-    <col min="35" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5546875" customWidth="1"/>
+    <col min="32" max="32" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.88671875" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+    <col min="35" max="35" width="19.21875" customWidth="1"/>
+    <col min="36" max="36" width="13.88671875" customWidth="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1"/>
+    <col min="38" max="38" width="3" customWidth="1"/>
+    <col min="39" max="39" width="15.109375" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12344,13 +12358,17 @@
       <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="L2" s="1"/>
       <c r="V2" s="1"/>
+      <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12435,18 +12453,47 @@
       <c r="AD3" s="1">
         <v>1</v>
       </c>
+      <c r="AF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="L4" s="1"/>
       <c r="V4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="L5" s="1"/>
       <c r="V5" s="1"/>
+      <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -12475,752 +12522,990 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="134" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="101"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="13" t="s">
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="113" t="s">
         <v>7</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="15" t="s">
+      <c r="W7" s="101"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="13" t="s">
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="113" t="s">
         <v>9</v>
       </c>
+      <c r="AF7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="108"/>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="113" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="135"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="144"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="34"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="114"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="112"/>
+      <c r="AN8" s="114"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="135"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="144"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="34"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="114"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="112"/>
+      <c r="AN9" s="114"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="136"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="42" t="s">
+      <c r="M10" s="105"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="44"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="145"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="46" t="s">
+      <c r="W10" s="105"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="49"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="115"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="115"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="9"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="56" t="s">
+      <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61" t="s">
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="62"/>
+      <c r="T11" s="16"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="63" t="s">
+      <c r="W11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="65" t="s">
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AD11" s="66"/>
+      <c r="AD11" s="20"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN11" s="20"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="69"/>
+      <c r="J12" s="23"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="70" t="s">
+      <c r="M12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="73" t="s">
+      <c r="N12" s="25"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="74"/>
+      <c r="T12" s="28"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="75" t="s">
+      <c r="W12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="78" t="s">
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AD12" s="79"/>
+      <c r="AD12" s="33"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN12" s="33"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="80" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="84" t="s">
+      <c r="J13" s="36" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="70" t="s">
+      <c r="M13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="85" t="s">
+      <c r="N13" s="25"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="T13" s="86"/>
+      <c r="T13" s="38"/>
       <c r="V13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="81" t="s">
+      <c r="W13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="X13" s="81" t="s">
+      <c r="X13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Y13" s="87" t="s">
+      <c r="Y13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="Z13" s="83"/>
-      <c r="AA13" s="81" t="s">
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AB13" s="88" t="s">
+      <c r="AB13" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="81" t="s">
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="35" t="s">
         <v>32</v>
       </c>
+      <c r="AF13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="51" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="70" t="s">
+      <c r="M14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="97"/>
+      <c r="T14" s="44"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="102"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="99"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="47"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="47"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="105">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="48">
         <v>3248</v>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107">
+      <c r="H15" s="49"/>
+      <c r="I15" s="50">
         <v>291137.18</v>
       </c>
-      <c r="J15" s="106"/>
+      <c r="J15" s="49"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="110"/>
-      <c r="P15" s="108" t="s">
+      <c r="O15" s="89"/>
+      <c r="P15" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="111" t="s">
+      <c r="R15" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="S15" s="111"/>
-      <c r="T15" s="112" t="s">
+      <c r="S15" s="92"/>
+      <c r="T15" s="83" t="s">
         <v>32</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W15" s="87" t="s">
+      <c r="W15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="83"/>
-      <c r="AD15" s="113"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="80"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="81"/>
+      <c r="AD15" s="52"/>
+      <c r="AF15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH15" s="80"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="81"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="81"/>
+      <c r="AN15" s="52"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="115" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="116" t="s">
+      <c r="G16" s="84"/>
+      <c r="H16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="116" t="s">
+      <c r="I16" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="116" t="s">
+      <c r="J16" s="54" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="120" t="s">
+      <c r="M16" s="87"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="120" t="s">
+      <c r="S16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="112"/>
+      <c r="T16" s="83"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="10" t="s">
+      <c r="W16" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="121" t="s">
+      <c r="X16" s="85"/>
+      <c r="Y16" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="122" t="s">
+      <c r="Z16" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="AA16" s="121" t="s">
+      <c r="AA16" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AB16" s="10" t="s">
+      <c r="AB16" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="121" t="s">
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="56" t="s">
         <v>40</v>
       </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL16" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM16" s="85"/>
+      <c r="AN16" s="56" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124" t="s">
+      <c r="G17" s="74"/>
+      <c r="H17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="124" t="s">
+      <c r="J17" s="58" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="129"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="61"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="131" t="s">
+      <c r="W17" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="132" t="s">
+      <c r="X17" s="78"/>
+      <c r="Y17" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="132" t="s">
+      <c r="Z17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" s="132" t="s">
+      <c r="AA17" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AB17" s="131" t="s">
+      <c r="AB17" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="132" t="s">
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="63" t="s">
         <v>49</v>
       </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ17" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK17" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL17" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="63" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="124" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="124" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="134" t="s">
+      <c r="I18" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="124" t="s">
+      <c r="J18" s="58" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="87" t="s">
+      <c r="M18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="131" t="s">
+      <c r="W18" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="132" t="s">
+      <c r="X18" s="78"/>
+      <c r="Y18" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="132" t="s">
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AB18" s="136" t="s">
+      <c r="AB18" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="132" t="s">
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="63" t="s">
         <v>46</v>
       </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL18" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM18" s="82"/>
+      <c r="AN18" s="63" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="115"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="53"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="138" t="s">
+      <c r="M19" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="115" t="s">
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="115" t="s">
+      <c r="Q19" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="116" t="s">
+      <c r="R19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="116" t="s">
+      <c r="S19" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="T19" s="116" t="s">
+      <c r="T19" s="54" t="s">
         <v>53</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="60"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="14"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="14"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="123" t="s">
+      <c r="M20" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="124" t="s">
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="140" t="s">
+      <c r="Q20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="R20" s="124" t="s">
+      <c r="R20" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S20" s="124" t="s">
+      <c r="S20" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="124" t="s">
+      <c r="T20" s="58" t="s">
         <v>54</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="141" t="s">
+      <c r="M21" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="124" t="s">
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="124" t="s">
+      <c r="Q21" s="70"/>
+      <c r="R21" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="140" t="s">
+      <c r="S21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="140" t="s">
+      <c r="T21" s="69" t="s">
         <v>46</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="60"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="14"/>
       <c r="V22" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AF22" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="L23" s="1"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="139"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="60"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="L24" s="1"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="139"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="R31" s="143"/>
-      <c r="AB31" s="144"/>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="R31" s="71"/>
+      <c r="AB31" s="72"/>
+      <c r="AL31" s="72"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="R32" s="143"/>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="R32" s="71"/>
     </row>
     <row r="33" spans="18:18" x14ac:dyDescent="0.3">
-      <c r="R33" s="143"/>
+      <c r="R33" s="71"/>
     </row>
     <row r="34" spans="18:18" x14ac:dyDescent="0.3">
-      <c r="R34" s="143"/>
+      <c r="R34" s="71"/>
     </row>
     <row r="35" spans="18:18" x14ac:dyDescent="0.3">
-      <c r="R35" s="144"/>
+      <c r="R35" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="AB18:AC18"/>
+  <mergeCells count="59">
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AL17:AM17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AL14:AM14"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AL16:AM16"/>
+    <mergeCell ref="AG7:AH10"/>
+    <mergeCell ref="AI7:AM9"/>
+    <mergeCell ref="AN7:AN10"/>
+    <mergeCell ref="AI10:AM10"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AL13:AM13"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="D7:I9"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="M7:N10"/>
+    <mergeCell ref="O7:S9"/>
+    <mergeCell ref="W7:X10"/>
+    <mergeCell ref="Y7:AC9"/>
+    <mergeCell ref="AD7:AD10"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="Y10:AC10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
@@ -13234,24 +13519,18 @@
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="R15:S15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="W7:X10"/>
-    <mergeCell ref="Y7:AC9"/>
-    <mergeCell ref="AD7:AD10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="Y10:AC10"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="D7:I9"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="M7:N10"/>
-    <mergeCell ref="O7:S9"/>
-    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="N17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
